--- a/tm.xlsx
+++ b/tm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MNakae\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B47DD47A-5F0D-48FB-88DE-2692752EE3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEEA736-455E-41AD-944A-D68CA1961662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27045" yWindow="4560" windowWidth="20520" windowHeight="15345" xr2:uid="{DA54BDC6-64B3-4195-A063-FF58DF094FA7}"/>
+    <workbookView xWindow="27390" yWindow="4905" windowWidth="20520" windowHeight="15345" xr2:uid="{DA54BDC6-64B3-4195-A063-FF58DF094FA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -396,9 +396,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -407,6 +404,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -745,743 +745,743 @@
   <dimension ref="A1:DB20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="DC3" sqref="DC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="4.5" style="4"/>
-    <col min="3" max="5" width="14.25" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="4.5" style="4"/>
+    <col min="1" max="2" width="4.5" style="3"/>
+    <col min="3" max="5" width="14.25" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="4.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:106" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:106" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="1">
         <f>COUNTA(F3:F1048576)</f>
         <v>0</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="1">
         <f t="shared" ref="G1:BR1" si="0">COUNTA(G3:G1048576)</f>
         <v>0</v>
       </c>
-      <c r="H1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AL1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AM1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AN1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AP1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AQ1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AR1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AS1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AT1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AV1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AW1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AX1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AY1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AZ1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BA1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BB1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BC1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BD1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BE1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BF1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BG1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BH1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BI1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BJ1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BK1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BL1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BM1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BN1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BO1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BP1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BQ1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BR1" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BS1" s="2">
+      <c r="H1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AQ1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AR1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AS1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AV1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AW1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AX1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AY1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AZ1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BA1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BB1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BC1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BD1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BE1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BF1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BG1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BH1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BI1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BJ1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BK1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BL1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BM1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BN1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BO1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BP1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BQ1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BR1" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BS1" s="1">
         <f t="shared" ref="BS1:DB1" si="1">COUNTA(BS3:BS1048576)</f>
         <v>0</v>
       </c>
-      <c r="BT1" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BU1" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BV1" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BW1" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BX1" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BY1" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BZ1" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CA1" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CB1" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CC1" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CD1" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CE1" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CF1" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CG1" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CH1" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CI1" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CJ1" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CK1" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CL1" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CM1" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CN1" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CO1" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CP1" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CQ1" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CR1" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CS1" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CT1" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CU1" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CV1" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CW1" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CX1" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CY1" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CZ1" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="DA1" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="DB1" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:106" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="BT1" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BU1" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BV1" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BW1" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BX1" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BY1" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BZ1" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CA1" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CB1" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CC1" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CD1" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CE1" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CF1" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CG1" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CH1" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CI1" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CJ1" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CK1" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CL1" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CM1" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CN1" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CO1" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CP1" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CQ1" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CR1" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CS1" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CT1" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CU1" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CV1" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CW1" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CX1" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CY1" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CZ1" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DA1" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DB1" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:106" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:106" x14ac:dyDescent="0.4">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:106" x14ac:dyDescent="0.4">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:106" x14ac:dyDescent="0.4">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:106" x14ac:dyDescent="0.4">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:106" x14ac:dyDescent="0.4">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:106" x14ac:dyDescent="0.4">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:106" x14ac:dyDescent="0.4">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:106" x14ac:dyDescent="0.4">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:106" x14ac:dyDescent="0.4">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:106" x14ac:dyDescent="0.4">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:106" x14ac:dyDescent="0.4">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:106" x14ac:dyDescent="0.4">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:106" x14ac:dyDescent="0.4">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:106" x14ac:dyDescent="0.4">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>53</v>
       </c>
     </row>
